--- a/examples/drinkingJaco_rewards.xlsx
+++ b/examples/drinkingJaco_rewards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nealg\Documents\MATLAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nealg\git\assistive-gym\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{576679F1-9A97-41B8-8617-FD628BD656E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB0701E-C55E-4829-8373-53A868BAB80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E584CB72-D657-48EE-B5D3-969240DBBB54}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E584CB72-D657-48EE-B5D3-969240DBBB54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,94 +402,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD18215-EA5A-4464-9E9D-09A5D1A0EBD9}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>530.04686296463206</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
         <f>AVERAGE(A:A)</f>
         <v>376.34857075069505</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>217.16998312396001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>MAX(A:A)</f>
+        <v>570.74881154515595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-165.04538127631201</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>MIN(A:A)</f>
+        <v>-195.28913903303501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>317.87764874161297</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>545.58678027572705</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-63.043087496906203</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>524.29522685131099</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-5.6493442940329297</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>514.80369876218299</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-148.72150553315799</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>424.037932529442</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>528.40871601079596</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>520.91408321621702</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>188.10181981965701</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>512.65866334904797</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>516.90629731190302</v>
       </c>
